--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Efnb3-Ephb3.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Efnb3-Ephb3.xlsx
@@ -76,28 +76,28 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>Inflammatory-Mac</t>
   </si>
   <si>
     <t>MuSCs</t>
   </si>
   <si>
+    <t>Resolving-Mac</t>
+  </si>
+  <si>
+    <t>Efnb3</t>
+  </si>
+  <si>
+    <t>Ephb3</t>
+  </si>
+  <si>
+    <t>FAPs</t>
+  </si>
+  <si>
     <t>Neutrophils</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
-  </si>
-  <si>
-    <t>Efnb3</t>
-  </si>
-  <si>
-    <t>Ephb3</t>
-  </si>
-  <si>
-    <t>ECs</t>
-  </si>
-  <si>
-    <t>FAPs</t>
   </si>
 </sst>
 </file>
@@ -534,7 +534,7 @@
         <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -543,46 +543,46 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.06315533333333333</v>
+        <v>0.2163973333333333</v>
       </c>
       <c r="H2">
-        <v>0.189466</v>
+        <v>0.649192</v>
       </c>
       <c r="I2">
-        <v>0.08692959137136652</v>
+        <v>0.2690509661419307</v>
       </c>
       <c r="J2">
-        <v>0.08692959137136655</v>
+        <v>0.2690509661419307</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>0.1882753333333333</v>
+        <v>0.41429</v>
       </c>
       <c r="N2">
-        <v>0.5648259999999999</v>
+        <v>1.24287</v>
       </c>
       <c r="O2">
-        <v>0.01590150887618359</v>
+        <v>0.04092688846882028</v>
       </c>
       <c r="P2">
-        <v>0.01590150887618359</v>
+        <v>0.04092688846882027</v>
       </c>
       <c r="Q2">
-        <v>0.01189059143511111</v>
+        <v>0.08965125122666666</v>
       </c>
       <c r="R2">
-        <v>0.107015322916</v>
+        <v>0.8068612610399999</v>
       </c>
       <c r="S2">
-        <v>0.001382311668794797</v>
+        <v>0.01101141888371914</v>
       </c>
       <c r="T2">
-        <v>0.001382311668794798</v>
+        <v>0.01101141888371914</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,7 +596,7 @@
         <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -605,16 +605,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.06315533333333333</v>
+        <v>0.2163973333333333</v>
       </c>
       <c r="H3">
-        <v>0.189466</v>
+        <v>0.649192</v>
       </c>
       <c r="I3">
-        <v>0.08692959137136652</v>
+        <v>0.2690509661419307</v>
       </c>
       <c r="J3">
-        <v>0.08692959137136655</v>
+        <v>0.2690509661419307</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>24.538206</v>
       </c>
       <c r="O3">
-        <v>0.6908224842953787</v>
+        <v>0.808026921710989</v>
       </c>
       <c r="P3">
-        <v>0.6908224842953786</v>
+        <v>0.8080269217109887</v>
       </c>
       <c r="Q3">
-        <v>0.5165728597773334</v>
+        <v>1.770000781061334</v>
       </c>
       <c r="R3">
-        <v>4.649155737996001</v>
+        <v>15.930007029552</v>
       </c>
       <c r="S3">
-        <v>0.06005291626994954</v>
+        <v>0.2174004239550318</v>
       </c>
       <c r="T3">
-        <v>0.06005291626994955</v>
+        <v>0.2174004239550317</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,7 +658,7 @@
         <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -667,46 +667,46 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.06315533333333333</v>
+        <v>0.2163973333333333</v>
       </c>
       <c r="H4">
-        <v>0.189466</v>
+        <v>0.649192</v>
       </c>
       <c r="I4">
-        <v>0.08692959137136652</v>
+        <v>0.2690509661419307</v>
       </c>
       <c r="J4">
-        <v>0.08692959137136655</v>
+        <v>0.2690509661419307</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>0.002236</v>
+        <v>1.490586333333334</v>
       </c>
       <c r="N4">
-        <v>0.006708</v>
+        <v>4.471759</v>
       </c>
       <c r="O4">
-        <v>0.0001888498786200344</v>
+        <v>0.1472520712966306</v>
       </c>
       <c r="P4">
-        <v>0.0001888498786200344</v>
+        <v>0.1472520712966306</v>
       </c>
       <c r="Q4">
-        <v>0.0001412153253333333</v>
+        <v>0.3225589076364445</v>
       </c>
       <c r="R4">
-        <v>0.001270937928</v>
+        <v>2.903030168728</v>
       </c>
       <c r="S4">
-        <v>1.641664277897175E-05</v>
+        <v>0.03961831204875894</v>
       </c>
       <c r="T4">
-        <v>1.641664277897176E-05</v>
+        <v>0.03961831204875893</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,7 +720,7 @@
         <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -729,46 +729,46 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>0.06315533333333333</v>
+        <v>0.2163973333333333</v>
       </c>
       <c r="H5">
-        <v>0.189466</v>
+        <v>0.649192</v>
       </c>
       <c r="I5">
-        <v>0.08692959137136652</v>
+        <v>0.2690509661419307</v>
       </c>
       <c r="J5">
-        <v>0.08692959137136655</v>
+        <v>0.2690509661419307</v>
       </c>
       <c r="K5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>3.352186666666667</v>
+        <v>0.02109</v>
       </c>
       <c r="N5">
-        <v>10.05656</v>
+        <v>0.06327000000000001</v>
       </c>
       <c r="O5">
-        <v>0.2831216659712423</v>
+        <v>0.002083439324645586</v>
       </c>
       <c r="P5">
-        <v>0.2831216659712423</v>
+        <v>0.002083439324645585</v>
       </c>
       <c r="Q5">
-        <v>0.2117084663288889</v>
+        <v>0.00456381976</v>
       </c>
       <c r="R5">
-        <v>1.90537619696</v>
+        <v>0.04107437784</v>
       </c>
       <c r="S5">
-        <v>0.02461165073126062</v>
+        <v>0.0005605513631939864</v>
       </c>
       <c r="T5">
-        <v>0.02461165073126062</v>
+        <v>0.0005605513631939863</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,46 +791,46 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>0.06315533333333333</v>
+        <v>0.2163973333333333</v>
       </c>
       <c r="H6">
-        <v>0.189466</v>
+        <v>0.649192</v>
       </c>
       <c r="I6">
-        <v>0.08692959137136652</v>
+        <v>0.2690509661419307</v>
       </c>
       <c r="J6">
-        <v>0.08692959137136655</v>
+        <v>0.2690509661419307</v>
       </c>
       <c r="K6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>0.1179923333333333</v>
+        <v>0.01731666666666667</v>
       </c>
       <c r="N6">
-        <v>0.353977</v>
+        <v>0.05195</v>
       </c>
       <c r="O6">
-        <v>0.009965490978575419</v>
+        <v>0.001710679198914781</v>
       </c>
       <c r="P6">
-        <v>0.009965490978575417</v>
+        <v>0.001710679198914781</v>
       </c>
       <c r="Q6">
-        <v>0.007451845142444443</v>
+        <v>0.003747280488888889</v>
       </c>
       <c r="R6">
-        <v>0.06706660628199999</v>
+        <v>0.0337255244</v>
       </c>
       <c r="S6">
-        <v>0.0008662960585826007</v>
+        <v>0.0004602598912269259</v>
       </c>
       <c r="T6">
-        <v>0.0008662960585826008</v>
+        <v>0.0004602598912269257</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,55 +844,55 @@
         <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G7">
+        <v>0.06315533333333333</v>
+      </c>
+      <c r="H7">
+        <v>0.189466</v>
+      </c>
+      <c r="I7">
+        <v>0.07852224049441002</v>
+      </c>
+      <c r="J7">
+        <v>0.07852224049441003</v>
+      </c>
+      <c r="K7">
         <v>3</v>
       </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7">
-        <v>0.5618379999999999</v>
-      </c>
-      <c r="H7">
-        <v>1.685514</v>
-      </c>
-      <c r="I7">
-        <v>0.7733368692573732</v>
-      </c>
-      <c r="J7">
-        <v>0.7733368692573734</v>
-      </c>
-      <c r="K7">
-        <v>2</v>
-      </c>
       <c r="L7">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M7">
-        <v>0.1882753333333333</v>
+        <v>0.41429</v>
       </c>
       <c r="N7">
-        <v>0.5648259999999999</v>
+        <v>1.24287</v>
       </c>
       <c r="O7">
-        <v>0.01590150887618359</v>
+        <v>0.04092688846882028</v>
       </c>
       <c r="P7">
-        <v>0.01590150887618359</v>
+        <v>0.04092688846882027</v>
       </c>
       <c r="Q7">
-        <v>0.1057802367293333</v>
+        <v>0.02616462304666667</v>
       </c>
       <c r="R7">
-        <v>0.9520221305639999</v>
+        <v>0.23548160742</v>
       </c>
       <c r="S7">
-        <v>0.01229722309077615</v>
+        <v>0.003213670979036602</v>
       </c>
       <c r="T7">
-        <v>0.01229722309077615</v>
+        <v>0.003213670979036602</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,25 +906,25 @@
         <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G8">
-        <v>0.5618379999999999</v>
+        <v>0.06315533333333333</v>
       </c>
       <c r="H8">
-        <v>1.685514</v>
+        <v>0.189466</v>
       </c>
       <c r="I8">
-        <v>0.7733368692573732</v>
+        <v>0.07852224049441002</v>
       </c>
       <c r="J8">
-        <v>0.7733368692573734</v>
+        <v>0.07852224049441003</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -939,22 +939,22 @@
         <v>24.538206</v>
       </c>
       <c r="O8">
-        <v>0.6908224842953787</v>
+        <v>0.808026921710989</v>
       </c>
       <c r="P8">
-        <v>0.6908224842953786</v>
+        <v>0.8080269217109887</v>
       </c>
       <c r="Q8">
-        <v>4.595498860876001</v>
+        <v>0.5165728597773334</v>
       </c>
       <c r="R8">
-        <v>41.35948974788401</v>
+        <v>4.649155737996001</v>
       </c>
       <c r="S8">
-        <v>0.5342384972175891</v>
+        <v>0.0634480842725481</v>
       </c>
       <c r="T8">
-        <v>0.5342384972175891</v>
+        <v>0.06344808427254808</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,55 +968,55 @@
         <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G9">
+        <v>0.06315533333333333</v>
+      </c>
+      <c r="H9">
+        <v>0.189466</v>
+      </c>
+      <c r="I9">
+        <v>0.07852224049441002</v>
+      </c>
+      <c r="J9">
+        <v>0.07852224049441003</v>
+      </c>
+      <c r="K9">
         <v>3</v>
       </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9">
-        <v>0.5618379999999999</v>
-      </c>
-      <c r="H9">
-        <v>1.685514</v>
-      </c>
-      <c r="I9">
-        <v>0.7733368692573732</v>
-      </c>
-      <c r="J9">
-        <v>0.7733368692573734</v>
-      </c>
-      <c r="K9">
-        <v>1</v>
-      </c>
       <c r="L9">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M9">
-        <v>0.002236</v>
+        <v>1.490586333333334</v>
       </c>
       <c r="N9">
-        <v>0.006708</v>
+        <v>4.471759</v>
       </c>
       <c r="O9">
-        <v>0.0001888498786200344</v>
+        <v>0.1472520712966306</v>
       </c>
       <c r="P9">
-        <v>0.0001888498786200344</v>
+        <v>0.1472520712966306</v>
       </c>
       <c r="Q9">
-        <v>0.001256269768</v>
+        <v>0.09413847674377779</v>
       </c>
       <c r="R9">
-        <v>0.011306427912</v>
+        <v>0.847246290694</v>
       </c>
       <c r="S9">
-        <v>0.0001460445738916523</v>
+        <v>0.01156256255565404</v>
       </c>
       <c r="T9">
-        <v>0.0001460445738916524</v>
+        <v>0.01156256255565404</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,55 +1030,55 @@
         <v>25</v>
       </c>
       <c r="D10" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="E10">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G10">
-        <v>0.5618379999999999</v>
+        <v>0.06315533333333333</v>
       </c>
       <c r="H10">
-        <v>1.685514</v>
+        <v>0.189466</v>
       </c>
       <c r="I10">
-        <v>0.7733368692573732</v>
+        <v>0.07852224049441002</v>
       </c>
       <c r="J10">
-        <v>0.7733368692573734</v>
+        <v>0.07852224049441003</v>
       </c>
       <c r="K10">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M10">
-        <v>3.352186666666667</v>
+        <v>0.02109</v>
       </c>
       <c r="N10">
-        <v>10.05656</v>
+        <v>0.06327000000000001</v>
       </c>
       <c r="O10">
-        <v>0.2831216659712423</v>
+        <v>0.002083439324645586</v>
       </c>
       <c r="P10">
-        <v>0.2831216659712423</v>
+        <v>0.002083439324645585</v>
       </c>
       <c r="Q10">
-        <v>1.883385852426667</v>
+        <v>0.00133194598</v>
       </c>
       <c r="R10">
-        <v>16.95047267184</v>
+        <v>0.01198751382</v>
       </c>
       <c r="S10">
-        <v>0.2189484227811323</v>
+        <v>0.0001635963237053319</v>
       </c>
       <c r="T10">
-        <v>0.2189484227811323</v>
+        <v>0.0001635963237053319</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,52 +1095,52 @@
         <v>23</v>
       </c>
       <c r="E11">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G11">
-        <v>0.5618379999999999</v>
+        <v>0.06315533333333333</v>
       </c>
       <c r="H11">
-        <v>1.685514</v>
+        <v>0.189466</v>
       </c>
       <c r="I11">
-        <v>0.7733368692573732</v>
+        <v>0.07852224049441002</v>
       </c>
       <c r="J11">
-        <v>0.7733368692573734</v>
+        <v>0.07852224049441003</v>
       </c>
       <c r="K11">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L11">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M11">
-        <v>0.1179923333333333</v>
+        <v>0.01731666666666667</v>
       </c>
       <c r="N11">
-        <v>0.353977</v>
+        <v>0.05195</v>
       </c>
       <c r="O11">
-        <v>0.009965490978575419</v>
+        <v>0.001710679198914781</v>
       </c>
       <c r="P11">
-        <v>0.009965490978575417</v>
+        <v>0.001710679198914781</v>
       </c>
       <c r="Q11">
-        <v>0.06629257657533333</v>
+        <v>0.001093639855555555</v>
       </c>
       <c r="R11">
-        <v>0.596633189178</v>
+        <v>0.009842758700000001</v>
       </c>
       <c r="S11">
-        <v>0.007706681593984111</v>
+        <v>0.0001343263634659711</v>
       </c>
       <c r="T11">
-        <v>0.007706681593984112</v>
+        <v>0.0001343263634659711</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,55 +1154,55 @@
         <v>25</v>
       </c>
       <c r="D12" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F12">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G12">
-        <v>0.073382</v>
+        <v>0.4426526666666666</v>
       </c>
       <c r="H12">
-        <v>0.220146</v>
+        <v>1.327958</v>
       </c>
       <c r="I12">
-        <v>0.1010059948594516</v>
+        <v>0.5503585732663155</v>
       </c>
       <c r="J12">
-        <v>0.1010059948594516</v>
+        <v>0.5503585732663157</v>
       </c>
       <c r="K12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L12">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M12">
-        <v>0.1882753333333333</v>
+        <v>0.41429</v>
       </c>
       <c r="N12">
-        <v>0.5648259999999999</v>
+        <v>1.24287</v>
       </c>
       <c r="O12">
-        <v>0.01590150887618359</v>
+        <v>0.04092688846882028</v>
       </c>
       <c r="P12">
-        <v>0.01590150887618359</v>
+        <v>0.04092688846882027</v>
       </c>
       <c r="Q12">
-        <v>0.01381602051066667</v>
+        <v>0.1833865732733333</v>
       </c>
       <c r="R12">
-        <v>0.124344184596</v>
+        <v>1.65047915946</v>
       </c>
       <c r="S12">
-        <v>0.001606147723805324</v>
+        <v>0.02252446394592955</v>
       </c>
       <c r="T12">
-        <v>0.001606147723805324</v>
+        <v>0.02252446394592955</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,25 +1216,25 @@
         <v>25</v>
       </c>
       <c r="D13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F13">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G13">
-        <v>0.073382</v>
+        <v>0.4426526666666666</v>
       </c>
       <c r="H13">
-        <v>0.220146</v>
+        <v>1.327958</v>
       </c>
       <c r="I13">
-        <v>0.1010059948594516</v>
+        <v>0.5503585732663155</v>
       </c>
       <c r="J13">
-        <v>0.1010059948594516</v>
+        <v>0.5503585732663157</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1249,22 +1249,22 @@
         <v>24.538206</v>
       </c>
       <c r="O13">
-        <v>0.6908224842953787</v>
+        <v>0.808026921710989</v>
       </c>
       <c r="P13">
-        <v>0.6908224842953786</v>
+        <v>0.8080269217109887</v>
       </c>
       <c r="Q13">
-        <v>0.6002208775640001</v>
+        <v>3.620634107038667</v>
       </c>
       <c r="R13">
-        <v>5.401987898076</v>
+        <v>32.585706963348</v>
       </c>
       <c r="S13">
-        <v>0.06977721229753261</v>
+        <v>0.4447045437936328</v>
       </c>
       <c r="T13">
-        <v>0.06977721229753261</v>
+        <v>0.4447045437936327</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,55 +1278,55 @@
         <v>25</v>
       </c>
       <c r="D14" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F14">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>0.073382</v>
+        <v>0.4426526666666666</v>
       </c>
       <c r="H14">
-        <v>0.220146</v>
+        <v>1.327958</v>
       </c>
       <c r="I14">
-        <v>0.1010059948594516</v>
+        <v>0.5503585732663155</v>
       </c>
       <c r="J14">
-        <v>0.1010059948594516</v>
+        <v>0.5503585732663157</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M14">
-        <v>0.002236</v>
+        <v>1.490586333333334</v>
       </c>
       <c r="N14">
-        <v>0.006708</v>
+        <v>4.471759</v>
       </c>
       <c r="O14">
-        <v>0.0001888498786200344</v>
+        <v>0.1472520712966306</v>
       </c>
       <c r="P14">
-        <v>0.0001888498786200344</v>
+        <v>0.1472520712966306</v>
       </c>
       <c r="Q14">
-        <v>0.000164082152</v>
+        <v>0.6598120153468889</v>
       </c>
       <c r="R14">
-        <v>0.001476739368</v>
+        <v>5.938308138122</v>
       </c>
       <c r="S14">
-        <v>1.907496986910325E-05</v>
+        <v>0.08104143986932343</v>
       </c>
       <c r="T14">
-        <v>1.907496986910325E-05</v>
+        <v>0.08104143986932343</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,55 +1340,55 @@
         <v>25</v>
       </c>
       <c r="D15" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F15">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>0.073382</v>
+        <v>0.4426526666666666</v>
       </c>
       <c r="H15">
-        <v>0.220146</v>
+        <v>1.327958</v>
       </c>
       <c r="I15">
-        <v>0.1010059948594516</v>
+        <v>0.5503585732663155</v>
       </c>
       <c r="J15">
-        <v>0.1010059948594516</v>
+        <v>0.5503585732663157</v>
       </c>
       <c r="K15">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L15">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M15">
-        <v>3.352186666666667</v>
+        <v>0.02109</v>
       </c>
       <c r="N15">
-        <v>10.05656</v>
+        <v>0.06327000000000001</v>
       </c>
       <c r="O15">
-        <v>0.2831216659712423</v>
+        <v>0.002083439324645586</v>
       </c>
       <c r="P15">
-        <v>0.2831216659712423</v>
+        <v>0.002083439324645585</v>
       </c>
       <c r="Q15">
-        <v>0.2459901619733334</v>
+        <v>0.00933554474</v>
       </c>
       <c r="R15">
-        <v>2.213911457760001</v>
+        <v>0.08401990266000001</v>
       </c>
       <c r="S15">
-        <v>0.02859698553769067</v>
+        <v>0.001146638694198881</v>
       </c>
       <c r="T15">
-        <v>0.02859698553769068</v>
+        <v>0.001146638694198881</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,52 +1405,52 @@
         <v>23</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F16">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G16">
-        <v>0.073382</v>
+        <v>0.4426526666666666</v>
       </c>
       <c r="H16">
-        <v>0.220146</v>
+        <v>1.327958</v>
       </c>
       <c r="I16">
-        <v>0.1010059948594516</v>
+        <v>0.5503585732663155</v>
       </c>
       <c r="J16">
-        <v>0.1010059948594516</v>
+        <v>0.5503585732663157</v>
       </c>
       <c r="K16">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L16">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M16">
-        <v>0.1179923333333333</v>
+        <v>0.01731666666666667</v>
       </c>
       <c r="N16">
-        <v>0.353977</v>
+        <v>0.05195</v>
       </c>
       <c r="O16">
-        <v>0.009965490978575419</v>
+        <v>0.001710679198914781</v>
       </c>
       <c r="P16">
-        <v>0.009965490978575417</v>
+        <v>0.001710679198914781</v>
       </c>
       <c r="Q16">
-        <v>0.008658513404666666</v>
+        <v>0.007665268677777778</v>
       </c>
       <c r="R16">
-        <v>0.077926620642</v>
+        <v>0.0689874181</v>
       </c>
       <c r="S16">
-        <v>0.0010065743305539</v>
+        <v>0.0009414869632311025</v>
       </c>
       <c r="T16">
-        <v>0.0010065743305539</v>
+        <v>0.0009414869632311025</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1464,7 +1464,7 @@
         <v>25</v>
       </c>
       <c r="D17" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E17">
         <v>1</v>
@@ -1473,46 +1473,46 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G17">
-        <v>0.028136</v>
+        <v>0.08209333333333334</v>
       </c>
       <c r="H17">
-        <v>0.08440800000000001</v>
+        <v>0.24628</v>
       </c>
       <c r="I17">
-        <v>0.03872754451180849</v>
+        <v>0.1020682200973436</v>
       </c>
       <c r="J17">
-        <v>0.03872754451180849</v>
+        <v>0.1020682200973436</v>
       </c>
       <c r="K17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L17">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M17">
-        <v>0.1882753333333333</v>
+        <v>0.41429</v>
       </c>
       <c r="N17">
-        <v>0.5648259999999999</v>
+        <v>1.24287</v>
       </c>
       <c r="O17">
-        <v>0.01590150887618359</v>
+        <v>0.04092688846882028</v>
       </c>
       <c r="P17">
-        <v>0.01590150887618359</v>
+        <v>0.04092688846882027</v>
       </c>
       <c r="Q17">
-        <v>0.005297314778666668</v>
+        <v>0.03401044706666666</v>
       </c>
       <c r="R17">
-        <v>0.047675833008</v>
+        <v>0.3060940236</v>
       </c>
       <c r="S17">
-        <v>0.0006158263928073179</v>
+        <v>0.004177334660134983</v>
       </c>
       <c r="T17">
-        <v>0.0006158263928073178</v>
+        <v>0.004177334660134981</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1526,7 +1526,7 @@
         <v>25</v>
       </c>
       <c r="D18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E18">
         <v>1</v>
@@ -1535,16 +1535,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G18">
-        <v>0.028136</v>
+        <v>0.08209333333333334</v>
       </c>
       <c r="H18">
-        <v>0.08440800000000001</v>
+        <v>0.24628</v>
       </c>
       <c r="I18">
-        <v>0.03872754451180849</v>
+        <v>0.1020682200973436</v>
       </c>
       <c r="J18">
-        <v>0.03872754451180849</v>
+        <v>0.1020682200973436</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1559,22 +1559,22 @@
         <v>24.538206</v>
       </c>
       <c r="O18">
-        <v>0.6908224842953787</v>
+        <v>0.808026921710989</v>
       </c>
       <c r="P18">
-        <v>0.6908224842953786</v>
+        <v>0.8080269217109887</v>
       </c>
       <c r="Q18">
-        <v>0.2301356546720001</v>
+        <v>0.6714743748533335</v>
       </c>
       <c r="R18">
-        <v>2.071220892048001</v>
+        <v>6.04326937368</v>
       </c>
       <c r="S18">
-        <v>0.02675385851030741</v>
+        <v>0.08247386968977626</v>
       </c>
       <c r="T18">
-        <v>0.0267538585103074</v>
+        <v>0.08247386968977623</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1588,7 +1588,7 @@
         <v>25</v>
       </c>
       <c r="D19" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E19">
         <v>1</v>
@@ -1597,46 +1597,46 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G19">
-        <v>0.028136</v>
+        <v>0.08209333333333334</v>
       </c>
       <c r="H19">
-        <v>0.08440800000000001</v>
+        <v>0.24628</v>
       </c>
       <c r="I19">
-        <v>0.03872754451180849</v>
+        <v>0.1020682200973436</v>
       </c>
       <c r="J19">
-        <v>0.03872754451180849</v>
+        <v>0.1020682200973436</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M19">
-        <v>0.002236</v>
+        <v>1.490586333333334</v>
       </c>
       <c r="N19">
-        <v>0.006708</v>
+        <v>4.471759</v>
       </c>
       <c r="O19">
-        <v>0.0001888498786200344</v>
+        <v>0.1472520712966306</v>
       </c>
       <c r="P19">
-        <v>0.0001888498786200344</v>
+        <v>0.1472520712966306</v>
       </c>
       <c r="Q19">
-        <v>6.291209600000001E-05</v>
+        <v>0.1223672007244445</v>
       </c>
       <c r="R19">
-        <v>0.000566208864</v>
+        <v>1.10130480652</v>
       </c>
       <c r="S19">
-        <v>7.313692080307012E-06</v>
+        <v>0.01502975682289423</v>
       </c>
       <c r="T19">
-        <v>7.313692080307012E-06</v>
+        <v>0.01502975682289423</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1650,7 +1650,7 @@
         <v>25</v>
       </c>
       <c r="D20" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="E20">
         <v>1</v>
@@ -1659,46 +1659,46 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G20">
-        <v>0.028136</v>
+        <v>0.08209333333333334</v>
       </c>
       <c r="H20">
-        <v>0.08440800000000001</v>
+        <v>0.24628</v>
       </c>
       <c r="I20">
-        <v>0.03872754451180849</v>
+        <v>0.1020682200973436</v>
       </c>
       <c r="J20">
-        <v>0.03872754451180849</v>
+        <v>0.1020682200973436</v>
       </c>
       <c r="K20">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L20">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M20">
-        <v>3.352186666666667</v>
+        <v>0.02109</v>
       </c>
       <c r="N20">
-        <v>10.05656</v>
+        <v>0.06327000000000001</v>
       </c>
       <c r="O20">
-        <v>0.2831216659712423</v>
+        <v>0.002083439324645586</v>
       </c>
       <c r="P20">
-        <v>0.2831216659712423</v>
+        <v>0.002083439324645585</v>
       </c>
       <c r="Q20">
-        <v>0.09431712405333335</v>
+        <v>0.0017313484</v>
       </c>
       <c r="R20">
-        <v>0.8488541164800002</v>
+        <v>0.0155821356</v>
       </c>
       <c r="S20">
-        <v>0.01096460692115866</v>
+        <v>0.0002126529435473866</v>
       </c>
       <c r="T20">
-        <v>0.01096460692115866</v>
+        <v>0.0002126529435473865</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,46 +1721,46 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G21">
-        <v>0.028136</v>
+        <v>0.08209333333333334</v>
       </c>
       <c r="H21">
-        <v>0.08440800000000001</v>
+        <v>0.24628</v>
       </c>
       <c r="I21">
-        <v>0.03872754451180849</v>
+        <v>0.1020682200973436</v>
       </c>
       <c r="J21">
-        <v>0.03872754451180849</v>
+        <v>0.1020682200973436</v>
       </c>
       <c r="K21">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L21">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M21">
-        <v>0.1179923333333333</v>
+        <v>0.01731666666666667</v>
       </c>
       <c r="N21">
-        <v>0.353977</v>
+        <v>0.05195</v>
       </c>
       <c r="O21">
-        <v>0.009965490978575419</v>
+        <v>0.001710679198914781</v>
       </c>
       <c r="P21">
-        <v>0.009965490978575417</v>
+        <v>0.001710679198914781</v>
       </c>
       <c r="Q21">
-        <v>0.003319832290666667</v>
+        <v>0.001421582888888889</v>
       </c>
       <c r="R21">
-        <v>0.029878490616</v>
+        <v>0.012794246</v>
       </c>
       <c r="S21">
-        <v>0.0003859389954548055</v>
+        <v>0.0001746059809907813</v>
       </c>
       <c r="T21">
-        <v>0.0003859389954548054</v>
+        <v>0.0001746059809907813</v>
       </c>
     </row>
   </sheetData>
